--- a/Simulasi/Simulasi Gantry Motor/result.xlsx
+++ b/Simulasi/Simulasi Gantry Motor/result.xlsx
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.97</v>
+        <v>8.571</v>
       </c>
       <c r="C3" t="n">
-        <v>12.455</v>
+        <v>13.216</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E3" t="n">
-        <v>6.888</v>
+        <v>10.757</v>
       </c>
       <c r="F3" t="n">
-        <v>10.821</v>
+        <v>15.194</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>11.482</v>
+        <v>12.005</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
     </row>
   </sheetData>
